--- a/wearVillage/문서/1팀_문서_담당자.xlsx
+++ b/wearVillage/문서/1팀_문서_담당자.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc\Desktop\wearVillage_gitHub\wearVillage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc\Desktop\wearVillage_gitHub\wearVillage\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,15 +124,6 @@
   <si>
     <t>전체프로세스 소개
  핵심 프로세스 설명</t>
-  </si>
-  <si>
-    <t xml:space="preserve">태스크플로우
-와이어프레임(화면정의서)
-</t>
-  </si>
-  <si>
-    <t>(정) 김지열
-(부) 박정연</t>
   </si>
   <si>
     <t>(정) 박정현
@@ -469,6 +460,17 @@
   </si>
   <si>
     <t>(정) 정인수</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정) 김지열
+(부) 박정연</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">태스크플로우
+와이어프레임(화면정의서)
+</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1043,6 +1045,42 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1083,42 +1121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,8 +1342,8 @@
   </sheetPr>
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1355,30 +1357,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="83" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:25" ht="72">
       <c r="A3" s="58">
@@ -1443,19 +1445,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="E6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="F6" s="61" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="57">
@@ -1463,19 +1465,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="E7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1502,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="E8" s="71" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="75"/>
@@ -1539,19 +1541,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="62" t="s">
+      <c r="F9" s="61" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>36</v>
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="76"/>
@@ -1574,23 +1576,23 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="36">
-      <c r="A10" s="94">
+      <c r="A10" s="77">
         <v>8</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="E10" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="F10" s="82" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="76"/>
@@ -1613,36 +1615,36 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="24">
-      <c r="A11" s="100">
+      <c r="A11" s="83">
         <v>9</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+    </row>
+    <row r="12" spans="1:25" ht="14.25">
+      <c r="A12" s="83">
+        <v>10</v>
+      </c>
+      <c r="B12" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="C12" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.25">
-      <c r="A12" s="100">
-        <v>10</v>
-      </c>
-      <c r="B12" s="101" t="s">
+      <c r="D12" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1682,7 +1684,7 @@
     <row r="1" spans="1:21" ht="15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5">
         <v>1</v>
@@ -1727,19 +1729,19 @@
         <v>14</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:21" ht="15" hidden="1">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -1776,10 +1778,10 @@
     </row>
     <row r="3" spans="1:21" ht="15" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -1812,10 +1814,10 @@
     </row>
     <row r="4" spans="1:21" ht="15" hidden="1">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1847,10 +1849,10 @@
     </row>
     <row r="5" spans="1:21" ht="15" hidden="1">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1879,10 +1881,10 @@
     </row>
     <row r="6" spans="1:21" ht="15" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1909,10 +1911,10 @@
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1958,10 +1960,10 @@
     </row>
     <row r="8" spans="1:21" ht="15" hidden="1">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1990,10 +1992,10 @@
     </row>
     <row r="9" spans="1:21" ht="15" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -2024,10 +2026,10 @@
     </row>
     <row r="10" spans="1:21" ht="15" hidden="1">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10">
@@ -2066,10 +2068,10 @@
     </row>
     <row r="11" spans="1:21" ht="15" hidden="1">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2098,10 +2100,10 @@
     </row>
     <row r="12" spans="1:21" ht="15" hidden="1">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
@@ -2134,10 +2136,10 @@
     </row>
     <row r="13" spans="1:21" ht="15" hidden="1">
       <c r="A13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2166,10 +2168,10 @@
     </row>
     <row r="14" spans="1:21" ht="15" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -2200,10 +2202,10 @@
     </row>
     <row r="15" spans="1:21" ht="15">
       <c r="A15" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -2272,8 +2274,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="98"/>
       <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
@@ -2282,150 +2284,150 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A3" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="23" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="D3" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="12.75">
+      <c r="A4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" s="88" t="s">
+      <c r="D4" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="24">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="12.75">
-      <c r="A5" s="89"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75">
-      <c r="A6" s="89"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="24">
         <v>3</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75">
-      <c r="A7" s="89"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="24">
         <v>4</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75">
-      <c r="A8" s="89"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="24">
         <v>5</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="25.5">
-      <c r="A9" s="89"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="24">
         <v>6</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75">
-      <c r="A10" s="89"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="24">
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.25">
-      <c r="A11" s="89"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="24">
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75">
-      <c r="A12" s="89"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="24">
         <v>9</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75">
-      <c r="A13" s="90"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="24">
         <v>10</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2479,10 +2481,10 @@
     <row r="3" spans="1:21" ht="15">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="36"/>
@@ -2492,10 +2494,10 @@
     <row r="4" spans="1:21" ht="12.75">
       <c r="A4" s="33"/>
       <c r="B4" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -2505,10 +2507,10 @@
     <row r="5" spans="1:21" ht="12.75">
       <c r="A5" s="33"/>
       <c r="B5" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -2525,17 +2527,17 @@
     <row r="6" spans="1:21" ht="12.75">
       <c r="A6" s="33"/>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
+        <v>47</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
@@ -2551,10 +2553,10 @@
     <row r="7" spans="1:21" ht="12.75">
       <c r="A7" s="33"/>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>3</v>
@@ -2563,10 +2565,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
@@ -2583,10 +2585,10 @@
     <row r="8" spans="1:21" ht="12.75">
       <c r="A8" s="33"/>
       <c r="B8" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2607,10 +2609,10 @@
     <row r="9" spans="1:21" ht="12.75">
       <c r="A9" s="33"/>
       <c r="B9" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2640,15 +2642,15 @@
       <c r="C12" s="42"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="93" t="s">
-        <v>103</v>
+      <c r="F12" s="105" t="s">
+        <v>101</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
       <c r="J12" s="44"/>
-      <c r="K12" s="93" t="s">
-        <v>104</v>
+      <c r="K12" s="105" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25">
@@ -2657,66 +2659,66 @@
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="47"/>
-      <c r="F13" s="92"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="45"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="92"/>
+      <c r="K13" s="104"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="E14" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>63</v>
-      </c>
       <c r="J14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="92"/>
+        <v>43</v>
+      </c>
+      <c r="K14" s="104"/>
     </row>
     <row r="15" spans="1:21" ht="14.25">
       <c r="A15" s="33"/>
       <c r="B15" s="53"/>
       <c r="C15" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="92"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="45"/>
-      <c r="K15" s="92"/>
+      <c r="K15" s="104"/>
     </row>
     <row r="16" spans="1:21" ht="12.75">
       <c r="A16" s="33"/>
@@ -2733,7 +2735,7 @@
       <c r="A17" s="33"/>
       <c r="B17" s="18"/>
       <c r="C17" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -2741,7 +2743,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K17" s="36"/>
     </row>
@@ -2749,7 +2751,7 @@
       <c r="A18" s="33"/>
       <c r="B18" s="56"/>
       <c r="C18" s="54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
